--- a/sub_pro_8_university_kenya/datasets/Kenya Universities List.xlsx
+++ b/sub_pro_8_university_kenya/datasets/Kenya Universities List.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\kenya_in_numbers_1\sub_pro_8_university_kenya\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE58A50-657C-458C-9EF6-42318C0CF418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C03BC-4956-4A87-A0E9-1CB96DDE2449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61A5876C-E1AA-4F3A-91B0-BFF9EA50D7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$87</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$88</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$87</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>Kenya Medical Research Institute</t>
   </si>
@@ -99,9 +105,6 @@
     <t>Turkana University College</t>
   </si>
   <si>
-    <t>Inoorero</t>
-  </si>
-  <si>
     <t>Kenya Highlands Evangelical University</t>
   </si>
   <si>
@@ -111,12 +114,6 @@
     <t>Nairobi International School of Theology</t>
   </si>
   <si>
-    <t>Kiriri Women's University of Scienceand Tech</t>
-  </si>
-  <si>
-    <t>Inorero</t>
-  </si>
-  <si>
     <t>The East African University</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Taita Taveta University</t>
   </si>
   <si>
-    <t>Tangaza University College</t>
-  </si>
-  <si>
     <t>Technical University of Mombasa</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>The Co-operative University of Kenya</t>
   </si>
   <si>
-    <t>The Presbyterian E.A.</t>
-  </si>
-  <si>
     <t>Alupe University</t>
   </si>
   <si>
@@ -270,69 +261,170 @@
     <t>National Defence University - Kenya</t>
   </si>
   <si>
-    <t>National Intelligence and Research University Coll</t>
-  </si>
-  <si>
     <t>Kenya School of Government</t>
   </si>
   <si>
     <t>Mama Ngina University College</t>
   </si>
   <si>
-    <t>Africa Interstates</t>
-  </si>
-  <si>
     <t>Open University of Kenya</t>
   </si>
   <si>
-    <t>KASNEB</t>
-  </si>
-  <si>
     <t>Consolata International University</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Baraton College</t>
   </si>
   <si>
-    <t>UMMA UNIVERSITY</t>
-  </si>
-  <si>
     <t>Kenya Advanced Institute of Science and Tech Univ</t>
   </si>
   <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Institution</t>
-  </si>
-  <si>
     <t>Governance</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Urban / Rural</t>
-  </si>
-  <si>
-    <t>Enrolment</t>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Tangaza University</t>
+  </si>
+  <si>
+    <t>National Intelligence and Research University</t>
+  </si>
+  <si>
+    <t>Kamagambo University College</t>
+  </si>
+  <si>
+    <t>University Name</t>
+  </si>
+  <si>
+    <t>Kiriri Women's University of Science and Tech</t>
+  </si>
+  <si>
+    <t>Inoorero University</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Uasin Gishu</t>
+  </si>
+  <si>
+    <t>Kajiado</t>
+  </si>
+  <si>
+    <t>Embu</t>
+  </si>
+  <si>
+    <t>Meru</t>
+  </si>
+  <si>
+    <t>Kisumu</t>
+  </si>
+  <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>Machakos</t>
+  </si>
+  <si>
+    <t>Nandi</t>
+  </si>
+  <si>
+    <t>Kericho</t>
+  </si>
+  <si>
+    <t>Turkana</t>
+  </si>
+  <si>
+    <t>Kirinyaga</t>
+  </si>
+  <si>
+    <t>Kisii</t>
+  </si>
+  <si>
+    <t>Laikipia</t>
+  </si>
+  <si>
+    <t>Bomet</t>
+  </si>
+  <si>
+    <t>Garissa</t>
+  </si>
+  <si>
+    <t>Murang'a</t>
+  </si>
+  <si>
+    <t>Narok</t>
+  </si>
+  <si>
+    <t>Kakamega</t>
+  </si>
+  <si>
+    <t>Tharaka Nithi</t>
+  </si>
+  <si>
+    <t>Nyeri</t>
+  </si>
+  <si>
+    <t>Siaya</t>
+  </si>
+  <si>
+    <t>Migori</t>
+  </si>
+  <si>
+    <t>Taita Taveta</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Homa Bay</t>
+  </si>
+  <si>
+    <t>Busia</t>
+  </si>
+  <si>
+    <t>Vihiga</t>
+  </si>
+  <si>
+    <t>Bungoma</t>
+  </si>
+  <si>
+    <t>Kilifi</t>
+  </si>
+  <si>
+    <t>Kitui</t>
+  </si>
+  <si>
+    <t>Location (Main Campus)</t>
+  </si>
+  <si>
+    <t>Latitude and Longitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -360,8 +452,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,788 +771,1255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F18E3C5-E38F-400C-90B2-EBBD69A42154}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="47.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C88" t="s">
+        <v>85</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sub_pro_8_university_kenya/datasets/Kenya Universities List.xlsx
+++ b/sub_pro_8_university_kenya/datasets/Kenya Universities List.xlsx
@@ -8,19 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R_Files\kenya_in_numbers_1\sub_pro_8_university_kenya\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C03BC-4956-4A87-A0E9-1CB96DDE2449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C411CCD-B5C0-4525-8A3D-33A2B283EFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61A5876C-E1AA-4F3A-91B0-BFF9EA50D7A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="434" xr2:uid="{61A5876C-E1AA-4F3A-91B0-BFF9EA50D7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$2:$D$87</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$88</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$87</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$88</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="205">
   <si>
     <t>Kenya Medical Research Institute</t>
   </si>
@@ -228,15 +222,9 @@
     <t>Tom Mboya University</t>
   </si>
   <si>
-    <t>Regina Pacis College</t>
-  </si>
-  <si>
     <t>International Leadership University</t>
   </si>
   <si>
-    <t>The Co-operative University of Kenya</t>
-  </si>
-  <si>
     <t>Alupe University</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>Consolata International University</t>
   </si>
   <si>
-    <t>Baraton College</t>
-  </si>
-  <si>
     <t>Kenya Advanced Institute of Science and Tech Univ</t>
   </si>
   <si>
@@ -294,9 +279,6 @@
     <t>Tangaza University</t>
   </si>
   <si>
-    <t>National Intelligence and Research University</t>
-  </si>
-  <si>
     <t>Kamagambo University College</t>
   </si>
   <si>
@@ -306,9 +288,6 @@
     <t>Kiriri Women's University of Science and Tech</t>
   </si>
   <si>
-    <t>Inoorero University</t>
-  </si>
-  <si>
     <t>Nairobi</t>
   </si>
   <si>
@@ -409,6 +388,258 @@
   </si>
   <si>
     <t>Latitude and Longitude</t>
+  </si>
+  <si>
+    <t>-1.2795323022893987, 36.81607201699395</t>
+  </si>
+  <si>
+    <t>-1.3135453733523674, 36.80411097931676</t>
+  </si>
+  <si>
+    <t>-1.3087994694483103, 36.8120362164318</t>
+  </si>
+  <si>
+    <t>0.5788442068697506, 35.30625478224488</t>
+  </si>
+  <si>
+    <t>-1.218062602211754, 36.87921515289652</t>
+  </si>
+  <si>
+    <t>-1.2157995590448927, 36.88456722533992</t>
+  </si>
+  <si>
+    <t>-1.291148164816515, 36.79632806695715</t>
+  </si>
+  <si>
+    <t>-1.1475593087018987, 36.666749676135275</t>
+  </si>
+  <si>
+    <t>-1.5004189503617433, 37.267106065776545</t>
+  </si>
+  <si>
+    <t>-1.3996791828463533, 36.78914059735677</t>
+  </si>
+  <si>
+    <t>-0.515408931435569, 37.456443267302596</t>
+  </si>
+  <si>
+    <t>0.2871900243851251, 35.29389756503365</t>
+  </si>
+  <si>
+    <t>0.12077778272832285, 37.64544342161534</t>
+  </si>
+  <si>
+    <t>-0.0062850862660618215, 34.59741806610828</t>
+  </si>
+  <si>
+    <t>-1.1793819850581124, 36.93642919620365</t>
+  </si>
+  <si>
+    <t>-0.16535259186037, 35.96482513449199</t>
+  </si>
+  <si>
+    <t>-1.0911422795997072, 37.01235210997647</t>
+  </si>
+  <si>
+    <t>-0.3720375113060505, 35.9335338077659</t>
+  </si>
+  <si>
+    <t>-1.444810088913906, 37.04764372264904</t>
+  </si>
+  <si>
+    <t>-1.3505971025763737, 36.758640847009865</t>
+  </si>
+  <si>
+    <t>-1.3485808912548303, 36.749488312564424</t>
+  </si>
+  <si>
+    <t>-4.037465962318298, 39.668411732309515</t>
+  </si>
+  <si>
+    <t>-1.2910765547847143, 36.825561915196204</t>
+  </si>
+  <si>
+    <t>-0.5312520456162853, 34.4640052478953</t>
+  </si>
+  <si>
+    <t>0.5030512963771611, 34.12749178635107</t>
+  </si>
+  <si>
+    <t>-1.0016571006645314, 34.88263756545125</t>
+  </si>
+  <si>
+    <t>-0.06730479341128255, 34.76515617815595</t>
+  </si>
+  <si>
+    <t>-1.7774998028859672, 36.8241005915719</t>
+  </si>
+  <si>
+    <t>-1.3065869298428268, 36.68617562261175</t>
+  </si>
+  <si>
+    <t>0.2555144316302579, 35.08371203199166</t>
+  </si>
+  <si>
+    <t>-1.262429148263907, 36.823735307866436</t>
+  </si>
+  <si>
+    <t>-1.1515069169689196, 36.96343960963072</t>
+  </si>
+  <si>
+    <t>-1.0526026652046474, 37.09488074006609</t>
+  </si>
+  <si>
+    <t>-0.04570129846526966, 34.82731668053124</t>
+  </si>
+  <si>
+    <t>3.0655056850697484, 35.61745361399295</t>
+  </si>
+  <si>
+    <t>-0.3690344273513872, 35.26715299428424</t>
+  </si>
+  <si>
+    <t>-1.588756779701487, 36.91850397504243</t>
+  </si>
+  <si>
+    <t>-1.5589551063491687, 36.94207886621156</t>
+  </si>
+  <si>
+    <t>-1.2735153797363243, 36.76841826545312</t>
+  </si>
+  <si>
+    <t>-1.2234234792127985, 36.96713289712904</t>
+  </si>
+  <si>
+    <t>-1.2709220606904965, 36.6714131829408</t>
+  </si>
+  <si>
+    <t>-1.328181783399665, 36.829335809634735</t>
+  </si>
+  <si>
+    <t>-1.2719141153345035, 36.828068978430224</t>
+  </si>
+  <si>
+    <t>-1.4025694045614487, 36.72877875493457</t>
+  </si>
+  <si>
+    <t>0.1284718201060648, 34.84691800355146</t>
+  </si>
+  <si>
+    <t>-0.4811717441836984, 37.12819514773551</t>
+  </si>
+  <si>
+    <t>-1.2531600866763617, 36.86055507279258</t>
+  </si>
+  <si>
+    <t>0.5700867240105131, 34.55969507656732</t>
+  </si>
+  <si>
+    <t>-0.5660263462102485, 37.32093459798323</t>
+  </si>
+  <si>
+    <t>-0.583896247821404, 34.786365818220894</t>
+  </si>
+  <si>
+    <t>0.03961100157866075, 36.288186440116895</t>
+  </si>
+  <si>
+    <t>-1.393966792556681, 36.94018862982325</t>
+  </si>
+  <si>
+    <t>-1.0941515612981934, 35.86112670726541</t>
+  </si>
+  <si>
+    <t>-1.5306817983309189, 37.26273680778223</t>
+  </si>
+  <si>
+    <t>-1.342809332628992, 36.727760174722874</t>
+  </si>
+  <si>
+    <t>0.13508686077297932, 37.70885563609535</t>
+  </si>
+  <si>
+    <t>0.2924651193720528, 34.762174607233774</t>
+  </si>
+  <si>
+    <t>-1.0435659549243292, 37.08488209031948</t>
+  </si>
+  <si>
+    <t>-1.3815939956472538, 36.76797699189559</t>
+  </si>
+  <si>
+    <t>-1.319542110897942, 36.809908452313415</t>
+  </si>
+  <si>
+    <t>-0.794104888774043, 35.33599746645486</t>
+  </si>
+  <si>
+    <t>-0.31950448499264733, 37.657616355138565</t>
+  </si>
+  <si>
+    <t>-0.3976811995036423, 36.961265017045015</t>
+  </si>
+  <si>
+    <t>-0.4481293094629745, 39.66214401202071</t>
+  </si>
+  <si>
+    <t>-1.3011581532369179, 36.775057748226786</t>
+  </si>
+  <si>
+    <t>-0.08516546942301267, 34.25907805523625</t>
+  </si>
+  <si>
+    <t>-0.7158407113017498, 37.147754036099414</t>
+  </si>
+  <si>
+    <t>-3.619911322046475, 39.846874349613834</t>
+  </si>
+  <si>
+    <t>-1.648593451785969, 36.87194978302701</t>
+  </si>
+  <si>
+    <t>-1.314819695496209, 36.807021088613986</t>
+  </si>
+  <si>
+    <t>-0.8240118961707148, 34.60798775616032</t>
+  </si>
+  <si>
+    <t>-1.3098203862791504, 37.75674387420865</t>
+  </si>
+  <si>
+    <t>-3.4325175067790044, 38.492419686345606</t>
+  </si>
+  <si>
+    <t>-0.09277837608223227, 37.99023171705285</t>
+  </si>
+  <si>
+    <t>The Cooperative University of Kenya</t>
+  </si>
+  <si>
+    <t>-1.3664067430117113, 36.72950547219953</t>
+  </si>
+  <si>
+    <t>0.32101298636322256, 35.17619403609478</t>
+  </si>
+  <si>
+    <t>-0.2862522978723007, 36.16290667842477</t>
+  </si>
+  <si>
+    <t>-1.2397912759165788, 36.744710191807684</t>
+  </si>
+  <si>
+    <t>-1.0369525490598495, 36.923945563083585</t>
+  </si>
+  <si>
+    <t>-1.689944808254188, 37.187302520760504</t>
+  </si>
+  <si>
+    <t>-1.3428848795100814, 36.77331993857408</t>
+  </si>
+  <si>
+    <t>-0.7391452093362932, 34.62892158749855</t>
+  </si>
+  <si>
+    <t>-1.6900392485595832, 37.172800824699245</t>
   </si>
 </sst>
 </file>
@@ -452,11 +683,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,36 +1000,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F18E3C5-E38F-400C-90B2-EBBD69A42154}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="47.26953125" customWidth="1"/>
     <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -812,10 +1041,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -826,10 +1058,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -840,10 +1075,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -854,10 +1092,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -868,10 +1109,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -882,10 +1126,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -896,10 +1143,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -910,10 +1160,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -924,10 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -938,10 +1194,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -952,10 +1211,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -966,10 +1228,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,10 +1245,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -994,10 +1262,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1008,13 +1279,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1022,13 +1296,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1036,13 +1313,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1050,13 +1330,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1064,13 +1347,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1078,13 +1364,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1092,13 +1381,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1106,13 +1398,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1120,13 +1415,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1134,643 +1432,781 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1778,13 +2214,16 @@
         <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1792,13 +2231,16 @@
         <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1806,13 +2248,16 @@
         <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1820,13 +2265,16 @@
         <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1834,13 +2282,16 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1848,13 +2299,16 @@
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1862,13 +2316,16 @@
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1876,13 +2333,16 @@
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1890,13 +2350,16 @@
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1904,55 +2367,67 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
         <v>87</v>
       </c>
-      <c r="C81" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1960,66 +2435,13 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
